--- a/biology/Zoologie/Chelonoidis/Chelonoidis.xlsx
+++ b/biology/Zoologie/Chelonoidis/Chelonoidis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelonoidis est un genre de tortues de la famille des Testudinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelonoidis est un genre de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 14 espèces de ce genre se rencontrent en Amérique du Sud, dont une (aujourd'hui éteinte) était originaire d'Hispaniola. Chelonoidis carbonaria a été introduite aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 14 espèces de ce genre se rencontrent en Amérique du Sud, dont une (aujourd'hui éteinte) était originaire d'Hispaniola. Chelonoidis carbonaria a été introduite aux Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (23 juin 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (23 juin 2011) :
 Chelonoidis abingdonii (Günther, 1877)
 Chelonoidis becki (Rothschild 1901)
 Chelonoidis carbonaria (Spix, 1824)
@@ -558,7 +574,7 @@
 Chelonoidis phantastica (Van Denburgh, 1907)
 Chelonoidis porteri (Rothschild, 1903)
 Chelonoidis vicina (Günther, 1875)
-En 2017, une nouvelle espèce (disparue) a été décrite (Zootaxa)[3] :
+En 2017, une nouvelle espèce (disparue) a été décrite (Zootaxa) :
 Chelonoidis marcanoi Turvey, Almonte, Hansford, Scofield, Brocca &amp; Chapman</t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fitzinger, 1835 : Entwurf einer systematischen Anordnung der Schildkröten nach den Grundsätzen der natürlichen Methode. Annalen des Wiener Museums der Naturgeschichte, vol. 1, p. 105-128 (texte intégral).</t>
         </is>
